--- a/GreyBoxConfig.xlsx
+++ b/GreyBoxConfig.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A89855-A63E-497B-9507-7E651425FE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB7372-EBFD-4642-8437-86FA8D2DF235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FC85BC9-1973-4CF9-A2E2-EFDA0DF48CB1}"/>
+    <workbookView xWindow="1788" yWindow="1428" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{ACABBBA1-3875-4913-9674-527D220990D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="state" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="States" sheetId="42" r:id="rId1"/>
+    <sheet name="Devices" sheetId="43" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="44" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,61 +35,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>epsilon</t>
-  </si>
-  <si>
-    <t>i_d</t>
-  </si>
-  <si>
-    <t>i_q</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>theta</t>
-  </si>
-  <si>
-    <t>Device1</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Device2</t>
-  </si>
-  <si>
-    <t>Modes</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,94 +381,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A4D88C-6F3E-45E7-94FE-A67608B486E8}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE1053C-EA3A-45B3-90C1-F8A1BDE7EAF4}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCFFD22-D85B-4D10-BCE7-3B9661D2BD13}">
-  <dimension ref="B2:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F230BD29-7958-4614-BB76-56DD5A7EED68}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3C7ABC-5ACD-4D60-BFEE-3C94670A48B2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GreyBoxConfig.xlsx
+++ b/GreyBoxConfig.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FB7372-EBFD-4642-8437-86FA8D2DF235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951D860-2C41-4FFD-9858-62D6788E7B31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1428" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{ACABBBA1-3875-4913-9674-527D220990D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{ACABBBA1-3875-4913-9674-527D220990D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="States" sheetId="42" r:id="rId1"/>
-    <sheet name="Devices" sheetId="43" r:id="rId2"/>
-    <sheet name="Parameters" sheetId="44" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="69" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="70" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +32,797 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="262">
+  <si>
+    <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
+  </si>
+  <si>
+    <t>write "1" for for selection, others for not</t>
+  </si>
+  <si>
+    <t>Device1</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>i_d</t>
+  </si>
+  <si>
+    <t>i_q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>Device2</t>
+  </si>
+  <si>
+    <t>Device3</t>
+  </si>
+  <si>
+    <t>Device6</t>
+  </si>
+  <si>
+    <t>Device8</t>
+  </si>
+  <si>
+    <t>Device11</t>
+  </si>
+  <si>
+    <t>i_d_i</t>
+  </si>
+  <si>
+    <t>i_q_i</t>
+  </si>
+  <si>
+    <t>w_pll_i</t>
+  </si>
+  <si>
+    <t>v_dc</t>
+  </si>
+  <si>
+    <t>v_dc_i</t>
+  </si>
+  <si>
+    <t>Device12</t>
+  </si>
+  <si>
+    <t>Device13</t>
+  </si>
+  <si>
+    <t>Select devices and mode for bode-plot and Greybox Layer1&amp;2 analysis</t>
+  </si>
+  <si>
+    <t>Device selection for Layer1&amp;2</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Bodeplot axis</t>
+  </si>
+  <si>
+    <t>d-d</t>
+  </si>
+  <si>
+    <t>d-q</t>
+  </si>
+  <si>
+    <t>q-d</t>
+  </si>
+  <si>
+    <t>q-q</t>
+  </si>
+  <si>
+    <t>Mode selection for Layer 1&amp;2&amp;3</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Complex value</t>
+  </si>
+  <si>
+    <t>Mode1</t>
+  </si>
+  <si>
+    <t>-42026.20+60.00i</t>
+  </si>
+  <si>
+    <t>Mode2</t>
+  </si>
+  <si>
+    <t>-42026.20-60.00i</t>
+  </si>
+  <si>
+    <t>Mode3</t>
+  </si>
+  <si>
+    <t>-23353.01+60.00i</t>
+  </si>
+  <si>
+    <t>Mode4</t>
+  </si>
+  <si>
+    <t>-23353.01-60.00i</t>
+  </si>
+  <si>
+    <t>Mode5</t>
+  </si>
+  <si>
+    <t>-17648.73+60.00i</t>
+  </si>
+  <si>
+    <t>Mode6</t>
+  </si>
+  <si>
+    <t>-17648.73-60.00i</t>
+  </si>
+  <si>
+    <t>Mode7</t>
+  </si>
+  <si>
+    <t>-11293.07+60.00i</t>
+  </si>
+  <si>
+    <t>Mode8</t>
+  </si>
+  <si>
+    <t>-11293.07-60.00i</t>
+  </si>
+  <si>
+    <t>Mode9</t>
+  </si>
+  <si>
+    <t>-7471.06+60.01i</t>
+  </si>
+  <si>
+    <t>Mode10</t>
+  </si>
+  <si>
+    <t>-7471.06-60.01i</t>
+  </si>
+  <si>
+    <t>Mode11</t>
+  </si>
+  <si>
+    <t>-2657.82+60.01i</t>
+  </si>
+  <si>
+    <t>Mode12</t>
+  </si>
+  <si>
+    <t>-2657.82-60.01i</t>
+  </si>
+  <si>
+    <t>Mode13</t>
+  </si>
+  <si>
+    <t>-130.03+2197.64i</t>
+  </si>
+  <si>
+    <t>Mode14</t>
+  </si>
+  <si>
+    <t>-130.03-2197.64i</t>
+  </si>
+  <si>
+    <t>Mode15</t>
+  </si>
+  <si>
+    <t>-130.03+2077.64i</t>
+  </si>
+  <si>
+    <t>Mode16</t>
+  </si>
+  <si>
+    <t>-130.03-2077.64i</t>
+  </si>
+  <si>
+    <t>Mode17</t>
+  </si>
+  <si>
+    <t>-69.50+1941.65i</t>
+  </si>
+  <si>
+    <t>Mode18</t>
+  </si>
+  <si>
+    <t>-69.50-1941.65i</t>
+  </si>
+  <si>
+    <t>Mode19</t>
+  </si>
+  <si>
+    <t>-69.50+1821.65i</t>
+  </si>
+  <si>
+    <t>Mode20</t>
+  </si>
+  <si>
+    <t>-69.50-1821.65i</t>
+  </si>
+  <si>
+    <t>Mode21</t>
+  </si>
+  <si>
+    <t>-107.43+1357.54i</t>
+  </si>
+  <si>
+    <t>Mode22</t>
+  </si>
+  <si>
+    <t>-107.43-1357.54i</t>
+  </si>
+  <si>
+    <t>Mode23</t>
+  </si>
+  <si>
+    <t>-863.15+957.21i</t>
+  </si>
+  <si>
+    <t>Mode24</t>
+  </si>
+  <si>
+    <t>-863.15-957.21i</t>
+  </si>
+  <si>
+    <t>Mode25</t>
+  </si>
+  <si>
+    <t>-107.43+1237.54i</t>
+  </si>
+  <si>
+    <t>Mode26</t>
+  </si>
+  <si>
+    <t>-107.43-1237.54i</t>
+  </si>
+  <si>
+    <t>Mode27</t>
+  </si>
+  <si>
+    <t>-863.15+837.21i</t>
+  </si>
+  <si>
+    <t>Mode28</t>
+  </si>
+  <si>
+    <t>-863.15-837.21i</t>
+  </si>
+  <si>
+    <t>Mode29</t>
+  </si>
+  <si>
+    <t>-216.12+776.85i</t>
+  </si>
+  <si>
+    <t>Mode30</t>
+  </si>
+  <si>
+    <t>-216.12-776.85i</t>
+  </si>
+  <si>
+    <t>Mode31</t>
+  </si>
+  <si>
+    <t>-216.12+656.86i</t>
+  </si>
+  <si>
+    <t>Mode32</t>
+  </si>
+  <si>
+    <t>-216.12-656.86i</t>
+  </si>
+  <si>
+    <t>Mode33</t>
+  </si>
+  <si>
+    <t>-93.93+460.31i</t>
+  </si>
+  <si>
+    <t>Mode34</t>
+  </si>
+  <si>
+    <t>-93.93-460.31i</t>
+  </si>
+  <si>
+    <t>Mode35</t>
+  </si>
+  <si>
+    <t>-93.60+340.95i</t>
+  </si>
+  <si>
+    <t>Mode36</t>
+  </si>
+  <si>
+    <t>-93.60-340.95i</t>
+  </si>
+  <si>
+    <t>Mode37</t>
+  </si>
+  <si>
+    <t>Mode38</t>
+  </si>
+  <si>
+    <t>Mode39</t>
+  </si>
+  <si>
+    <t>Mode40</t>
+  </si>
+  <si>
+    <t>-120.97+89.47i</t>
+  </si>
+  <si>
+    <t>Mode41</t>
+  </si>
+  <si>
+    <t>-120.97-89.47i</t>
+  </si>
+  <si>
+    <t>Mode42</t>
+  </si>
+  <si>
+    <t>-83.80+91.12i</t>
+  </si>
+  <si>
+    <t>Mode43</t>
+  </si>
+  <si>
+    <t>-83.80-91.12i</t>
+  </si>
+  <si>
+    <t>Mode44</t>
+  </si>
+  <si>
+    <t>-38.72+76.60i</t>
+  </si>
+  <si>
+    <t>Mode45</t>
+  </si>
+  <si>
+    <t>-38.72-76.60i</t>
+  </si>
+  <si>
+    <t>Mode46</t>
+  </si>
+  <si>
+    <t>-40.95+62.70i</t>
+  </si>
+  <si>
+    <t>Mode47</t>
+  </si>
+  <si>
+    <t>-40.95-62.70i</t>
+  </si>
+  <si>
+    <t>Mode48</t>
+  </si>
+  <si>
+    <t>-33.38+39.26i</t>
+  </si>
+  <si>
+    <t>Mode49</t>
+  </si>
+  <si>
+    <t>-33.38-39.26i</t>
+  </si>
+  <si>
+    <t>Mode50</t>
+  </si>
+  <si>
+    <t>-28.14+60.01i</t>
+  </si>
+  <si>
+    <t>Mode51</t>
+  </si>
+  <si>
+    <t>-28.14-60.01i</t>
+  </si>
+  <si>
+    <t>Mode52</t>
+  </si>
+  <si>
+    <t>-18.92+36.84i</t>
+  </si>
+  <si>
+    <t>Mode53</t>
+  </si>
+  <si>
+    <t>-18.92-36.84i</t>
+  </si>
+  <si>
+    <t>Mode54</t>
+  </si>
+  <si>
+    <t>-7.38+60.01i</t>
+  </si>
+  <si>
+    <t>Mode55</t>
+  </si>
+  <si>
+    <t>-7.38-60.01i</t>
+  </si>
+  <si>
+    <t>Mode56</t>
+  </si>
+  <si>
+    <t>-10.68+60.01i</t>
+  </si>
+  <si>
+    <t>Mode57</t>
+  </si>
+  <si>
+    <t>-10.68-60.01i</t>
+  </si>
+  <si>
+    <t>Mode58</t>
+  </si>
+  <si>
+    <t>-5.08+60.05i</t>
+  </si>
+  <si>
+    <t>Mode59</t>
+  </si>
+  <si>
+    <t>-5.08-60.05i</t>
+  </si>
+  <si>
+    <t>Mode60</t>
+  </si>
+  <si>
+    <t>-11.99+60.01i</t>
+  </si>
+  <si>
+    <t>Mode61</t>
+  </si>
+  <si>
+    <t>-11.99-60.01i</t>
+  </si>
+  <si>
+    <t>Mode62</t>
+  </si>
+  <si>
+    <t>-0.31+20.86i</t>
+  </si>
+  <si>
+    <t>Mode63</t>
+  </si>
+  <si>
+    <t>-0.31-20.86i</t>
+  </si>
+  <si>
+    <t>Mode64</t>
+  </si>
+  <si>
+    <t>-15.09+60.09i</t>
+  </si>
+  <si>
+    <t>Mode65</t>
+  </si>
+  <si>
+    <t>-15.09-60.09i</t>
+  </si>
+  <si>
+    <t>Mode66</t>
+  </si>
+  <si>
+    <t>-16.64+60.01i</t>
+  </si>
+  <si>
+    <t>Mode67</t>
+  </si>
+  <si>
+    <t>-16.64-60.01i</t>
+  </si>
+  <si>
+    <t>Mode68</t>
+  </si>
+  <si>
+    <t>-12.95+4.40i</t>
+  </si>
+  <si>
+    <t>Mode69</t>
+  </si>
+  <si>
+    <t>-12.95-4.40i</t>
+  </si>
+  <si>
+    <t>Mode70</t>
+  </si>
+  <si>
+    <t>-13.82+2.86i</t>
+  </si>
+  <si>
+    <t>Mode71</t>
+  </si>
+  <si>
+    <t>-13.82-2.86i</t>
+  </si>
+  <si>
+    <t>Mode72</t>
+  </si>
+  <si>
+    <t>-8.07+7.30i</t>
+  </si>
+  <si>
+    <t>Mode73</t>
+  </si>
+  <si>
+    <t>-8.07-7.30i</t>
+  </si>
+  <si>
+    <t>Mode74</t>
+  </si>
+  <si>
+    <t>-0.19+5.55i</t>
+  </si>
+  <si>
+    <t>Mode75</t>
+  </si>
+  <si>
+    <t>-0.19-5.55i</t>
+  </si>
+  <si>
+    <t>Mode76</t>
+  </si>
+  <si>
+    <t>-0.11+2.17i</t>
+  </si>
+  <si>
+    <t>Mode77</t>
+  </si>
+  <si>
+    <t>-0.11-2.17i</t>
+  </si>
+  <si>
+    <t>Mode78</t>
+  </si>
+  <si>
+    <t>-0.11+1.80i</t>
+  </si>
+  <si>
+    <t>Mode79</t>
+  </si>
+  <si>
+    <t>-0.11-1.80i</t>
+  </si>
+  <si>
+    <t>Mode80</t>
+  </si>
+  <si>
+    <t>Mode81</t>
+  </si>
+  <si>
+    <t>-6.27+1.15i</t>
+  </si>
+  <si>
+    <t>Mode82</t>
+  </si>
+  <si>
+    <t>-6.27-1.15i</t>
+  </si>
+  <si>
+    <t>Mode83</t>
+  </si>
+  <si>
+    <t>-0.11+1.56i</t>
+  </si>
+  <si>
+    <t>Mode84</t>
+  </si>
+  <si>
+    <t>-0.11-1.56i</t>
+  </si>
+  <si>
+    <t>Mode85</t>
+  </si>
+  <si>
+    <t>-7.79+0.27i</t>
+  </si>
+  <si>
+    <t>Mode86</t>
+  </si>
+  <si>
+    <t>-7.79-0.27i</t>
+  </si>
+  <si>
+    <t>Mode87</t>
+  </si>
+  <si>
+    <t>-7.59+0.54i</t>
+  </si>
+  <si>
+    <t>Mode88</t>
+  </si>
+  <si>
+    <t>-7.59-0.54i</t>
+  </si>
+  <si>
+    <t>Mode89</t>
+  </si>
+  <si>
+    <t>Mode90</t>
+  </si>
+  <si>
+    <t>-19.26+60.00i</t>
+  </si>
+  <si>
+    <t>Mode91</t>
+  </si>
+  <si>
+    <t>-19.26-60.00i</t>
+  </si>
+  <si>
+    <t>Mode92</t>
+  </si>
+  <si>
+    <t>-0.43+60.03i</t>
+  </si>
+  <si>
+    <t>Mode93</t>
+  </si>
+  <si>
+    <t>-0.43-60.03i</t>
+  </si>
+  <si>
+    <t>Mode94</t>
+  </si>
+  <si>
+    <t>-0.23+60.00i</t>
+  </si>
+  <si>
+    <t>Mode95</t>
+  </si>
+  <si>
+    <t>-0.23-60.00i</t>
+  </si>
+  <si>
+    <t>Mode96</t>
+  </si>
+  <si>
+    <t>-0.15+60.00i</t>
+  </si>
+  <si>
+    <t>Mode97</t>
+  </si>
+  <si>
+    <t>-0.15-60.00i</t>
+  </si>
+  <si>
+    <t>Mode98</t>
+  </si>
+  <si>
+    <t>-0.12+60.01i</t>
+  </si>
+  <si>
+    <t>Mode99</t>
+  </si>
+  <si>
+    <t>-0.12-60.01i</t>
+  </si>
+  <si>
+    <t>Mode100</t>
+  </si>
+  <si>
+    <t>-0.02+60.00i</t>
+  </si>
+  <si>
+    <t>Mode101</t>
+  </si>
+  <si>
+    <t>-0.02-60.00i</t>
+  </si>
+  <si>
+    <t>Mode102</t>
+  </si>
+  <si>
+    <t>-19.65+60.00i</t>
+  </si>
+  <si>
+    <t>Mode103</t>
+  </si>
+  <si>
+    <t>-19.65-60.00i</t>
+  </si>
+  <si>
+    <t>Mode104</t>
+  </si>
+  <si>
+    <t>-0.07+60.00i</t>
+  </si>
+  <si>
+    <t>Mode105</t>
+  </si>
+  <si>
+    <t>-0.07-60.00i</t>
+  </si>
+  <si>
+    <t>Mode106</t>
+  </si>
+  <si>
+    <t>-0.04+60.00i</t>
+  </si>
+  <si>
+    <t>Mode107</t>
+  </si>
+  <si>
+    <t>-0.04-60.00i</t>
+  </si>
+  <si>
+    <t>Mode108</t>
+  </si>
+  <si>
+    <t>-0.05+60.00i</t>
+  </si>
+  <si>
+    <t>Mode109</t>
+  </si>
+  <si>
+    <t>-0.05-60.00i</t>
+  </si>
+  <si>
+    <t>Mode110</t>
+  </si>
+  <si>
+    <t>-0.05+60.01i</t>
+  </si>
+  <si>
+    <t>Mode111</t>
+  </si>
+  <si>
+    <t>-0.05-60.01i</t>
+  </si>
+  <si>
+    <t>Mode112</t>
+  </si>
+  <si>
+    <t>Mode113</t>
+  </si>
+  <si>
+    <t>Mode114</t>
+  </si>
+  <si>
+    <t>Mode115</t>
+  </si>
+  <si>
+    <t>Mode116</t>
+  </si>
+  <si>
+    <t>Mode117</t>
+  </si>
+  <si>
+    <t>Mode118</t>
+  </si>
+  <si>
+    <t>Mode119</t>
+  </si>
+  <si>
+    <t>Mode120</t>
+  </si>
+  <si>
+    <t>Mode121</t>
+  </si>
+  <si>
+    <t>Mode122</t>
+  </si>
+  <si>
+    <t>Mode123</t>
+  </si>
+  <si>
+    <t>Device selection for Layer3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,37 +1171,1906 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE1053C-EA3A-45B3-90C1-F8A1BDE7EAF4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355A7A22-B1FC-4606-A954-195574733F6B}">
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F230BD29-7958-4614-BB76-56DD5A7EED68}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE57FEDF-C077-4DD1-8A60-B963F35B33D2}">
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3C7ABC-5ACD-4D60-BFEE-3C94670A48B2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43">
+        <v>-193.11</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44">
+        <v>-200.55</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45">
+        <v>-198.58</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" t="s">
+        <v>122</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" t="s">
+        <v>128</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" t="s">
+        <v>142</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" t="s">
+        <v>144</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>145</v>
+      </c>
+      <c r="H65" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" t="s">
+        <v>148</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" t="s">
+        <v>150</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>153</v>
+      </c>
+      <c r="H69" t="s">
+        <v>154</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" t="s">
+        <v>156</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>157</v>
+      </c>
+      <c r="H71" t="s">
+        <v>158</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" t="s">
+        <v>160</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" t="s">
+        <v>162</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" t="s">
+        <v>164</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H76" t="s">
+        <v>168</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" t="s">
+        <v>170</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H78" t="s">
+        <v>172</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>173</v>
+      </c>
+      <c r="H79" t="s">
+        <v>174</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H80" t="s">
+        <v>176</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>177</v>
+      </c>
+      <c r="H81" t="s">
+        <v>178</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>179</v>
+      </c>
+      <c r="H82" t="s">
+        <v>180</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>181</v>
+      </c>
+      <c r="H83" t="s">
+        <v>182</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>183</v>
+      </c>
+      <c r="H84" t="s">
+        <v>184</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" t="s">
+        <v>186</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>187</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>188</v>
+      </c>
+      <c r="H87" t="s">
+        <v>189</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" t="s">
+        <v>191</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>192</v>
+      </c>
+      <c r="H89" t="s">
+        <v>193</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>194</v>
+      </c>
+      <c r="H90" t="s">
+        <v>195</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>196</v>
+      </c>
+      <c r="H91" t="s">
+        <v>197</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" t="s">
+        <v>199</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93" t="s">
+        <v>201</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>202</v>
+      </c>
+      <c r="H94" t="s">
+        <v>203</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>204</v>
+      </c>
+      <c r="H95">
+        <v>-0.24</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>206</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" t="s">
+        <v>208</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" t="s">
+        <v>210</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" t="s">
+        <v>212</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100" t="s">
+        <v>214</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>215</v>
+      </c>
+      <c r="H101" t="s">
+        <v>216</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>217</v>
+      </c>
+      <c r="H102" t="s">
+        <v>218</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>219</v>
+      </c>
+      <c r="H103" t="s">
+        <v>220</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>221</v>
+      </c>
+      <c r="H104" t="s">
+        <v>222</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" t="s">
+        <v>224</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>225</v>
+      </c>
+      <c r="H106" t="s">
+        <v>226</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>227</v>
+      </c>
+      <c r="H107" t="s">
+        <v>228</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>229</v>
+      </c>
+      <c r="H108" t="s">
+        <v>230</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>231</v>
+      </c>
+      <c r="H109" t="s">
+        <v>232</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>233</v>
+      </c>
+      <c r="H110" t="s">
+        <v>234</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>235</v>
+      </c>
+      <c r="H111" t="s">
+        <v>236</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112" t="s">
+        <v>238</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>239</v>
+      </c>
+      <c r="H113" t="s">
+        <v>240</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>241</v>
+      </c>
+      <c r="H114" t="s">
+        <v>242</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>243</v>
+      </c>
+      <c r="H115" t="s">
+        <v>244</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>245</v>
+      </c>
+      <c r="H116" t="s">
+        <v>246</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>247</v>
+      </c>
+      <c r="H117" t="s">
+        <v>248</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>249</v>
+      </c>
+      <c r="H118" t="s">
+        <v>230</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>250</v>
+      </c>
+      <c r="H119" t="s">
+        <v>232</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>251</v>
+      </c>
+      <c r="H120" t="s">
+        <v>230</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>252</v>
+      </c>
+      <c r="H121" t="s">
+        <v>232</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>253</v>
+      </c>
+      <c r="H122" t="s">
+        <v>230</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>254</v>
+      </c>
+      <c r="H123" t="s">
+        <v>232</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>255</v>
+      </c>
+      <c r="H124" t="s">
+        <v>230</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>256</v>
+      </c>
+      <c r="H125" t="s">
+        <v>232</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>257</v>
+      </c>
+      <c r="H126" t="s">
+        <v>230</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>258</v>
+      </c>
+      <c r="H127" t="s">
+        <v>232</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>259</v>
+      </c>
+      <c r="H128" t="s">
+        <v>230</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>260</v>
+      </c>
+      <c r="H129" t="s">
+        <v>232</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GreyBoxConfig.xlsx
+++ b/GreyBoxConfig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRep\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8248C68-FA2C-455E-9115-49BBF613462A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C6E01C-6B02-47EF-8AE5-1F27564A69AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1428" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{2E5683A8-F8DA-41F6-917A-B659D590C9EB}"/>
+    <workbookView xWindow="4224" yWindow="2484" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{2E5683A8-F8DA-41F6-917A-B659D590C9EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="53" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="54" r:id="rId2"/>
+    <sheet name="State-PF" sheetId="55" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="56" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="608">
   <si>
     <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
   </si>
@@ -91,148 +91,199 @@
     <t>Mode5</t>
   </si>
   <si>
-    <t>-3748661.82+50.00i</t>
-  </si>
-  <si>
     <t>Device2</t>
   </si>
   <si>
     <t>Mode6</t>
   </si>
   <si>
-    <t>-3748661.82-50.00i</t>
-  </si>
-  <si>
     <t>Mode7</t>
   </si>
   <si>
-    <t>-2998888.27+50.00i</t>
-  </si>
-  <si>
     <t>Mode8</t>
   </si>
   <si>
-    <t>-2998888.27-50.00i</t>
-  </si>
-  <si>
     <t>Mode9</t>
   </si>
   <si>
-    <t>-2998332.40+50.00i</t>
-  </si>
-  <si>
     <t>Mode10</t>
   </si>
   <si>
-    <t>-2998332.40-50.00i</t>
-  </si>
-  <si>
     <t>Device3</t>
   </si>
   <si>
     <t>Mode11</t>
   </si>
   <si>
-    <t>-205226.72+50.00i</t>
+    <t>NaN</t>
   </si>
   <si>
     <t>Mode12</t>
   </si>
   <si>
-    <t>-205226.72-50.00i</t>
-  </si>
-  <si>
     <t>Mode13</t>
   </si>
   <si>
-    <t>-45262.87+49.99i</t>
-  </si>
-  <si>
     <t>Mode14</t>
   </si>
   <si>
-    <t>-45262.87-49.99i</t>
+    <t>-Inf</t>
   </si>
   <si>
     <t>Mode15</t>
   </si>
   <si>
-    <t>-1670.93+50.00i</t>
-  </si>
-  <si>
-    <t>Device4</t>
+    <t>Device6</t>
   </si>
   <si>
     <t>Mode16</t>
   </si>
   <si>
-    <t>-1670.93-50.00i</t>
-  </si>
-  <si>
     <t>Mode17</t>
   </si>
   <si>
-    <t>-1587.63+50.01i</t>
-  </si>
-  <si>
     <t>Mode18</t>
   </si>
   <si>
-    <t>-1587.63-50.01i</t>
+    <t>Mode19</t>
+  </si>
+  <si>
+    <t>Mode20</t>
+  </si>
+  <si>
+    <t>Device8</t>
+  </si>
+  <si>
+    <t>Mode21</t>
+  </si>
+  <si>
+    <t>Mode22</t>
+  </si>
+  <si>
+    <t>Mode23</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>Mode24</t>
+  </si>
+  <si>
+    <t>Mode25</t>
+  </si>
+  <si>
+    <t>Device11</t>
+  </si>
+  <si>
+    <t>Mode26</t>
+  </si>
+  <si>
+    <t>Mode27</t>
+  </si>
+  <si>
+    <t>Mode28</t>
   </si>
   <si>
     <t>i_d_i</t>
   </si>
   <si>
-    <t>Mode19</t>
-  </si>
-  <si>
-    <t>-856.44+50.04i</t>
+    <t>Mode29</t>
   </si>
   <si>
     <t>i_q_i</t>
   </si>
   <si>
-    <t>Mode20</t>
-  </si>
-  <si>
-    <t>-856.44-50.04i</t>
+    <t>Mode30</t>
   </si>
   <si>
     <t>w_pll_i</t>
   </si>
   <si>
-    <t>Mode21</t>
-  </si>
-  <si>
-    <t>Mode22</t>
-  </si>
-  <si>
-    <t>-22.50+95.65i</t>
-  </si>
-  <si>
-    <t>Mode23</t>
-  </si>
-  <si>
-    <t>-22.50-95.65i</t>
+    <t>Mode31</t>
+  </si>
+  <si>
+    <t>Mode32</t>
+  </si>
+  <si>
+    <t>Mode33</t>
   </si>
   <si>
     <t>v_dc</t>
   </si>
   <si>
-    <t>Mode24</t>
-  </si>
-  <si>
-    <t>-3.34+50.00i</t>
+    <t>Mode34</t>
   </si>
   <si>
     <t>v_dc_i</t>
   </si>
   <si>
-    <t>Mode25</t>
-  </si>
-  <si>
-    <t>-3.34-50.00i</t>
+    <t>Mode35</t>
+  </si>
+  <si>
+    <t>Device12</t>
+  </si>
+  <si>
+    <t>Mode36</t>
+  </si>
+  <si>
+    <t>Mode37</t>
+  </si>
+  <si>
+    <t>Mode38</t>
+  </si>
+  <si>
+    <t>Mode39</t>
+  </si>
+  <si>
+    <t>Mode40</t>
+  </si>
+  <si>
+    <t>Mode41</t>
+  </si>
+  <si>
+    <t>Mode42</t>
+  </si>
+  <si>
+    <t>Mode43</t>
+  </si>
+  <si>
+    <t>Mode44</t>
+  </si>
+  <si>
+    <t>Mode45</t>
+  </si>
+  <si>
+    <t>Device13</t>
+  </si>
+  <si>
+    <t>Mode46</t>
+  </si>
+  <si>
+    <t>Mode47</t>
+  </si>
+  <si>
+    <t>Mode48</t>
+  </si>
+  <si>
+    <t>Mode49</t>
+  </si>
+  <si>
+    <t>Mode50</t>
+  </si>
+  <si>
+    <t>Mode51</t>
+  </si>
+  <si>
+    <t>Mode52</t>
+  </si>
+  <si>
+    <t>Mode53</t>
+  </si>
+  <si>
+    <t>Mode54</t>
+  </si>
+  <si>
+    <t>Mode55</t>
   </si>
   <si>
     <t>Line</t>
@@ -241,304 +292,1225 @@
     <t>x_br11_1</t>
   </si>
   <si>
-    <t>Mode26</t>
-  </si>
-  <si>
-    <t>-3.36+50.00i</t>
+    <t>Mode56</t>
   </si>
   <si>
     <t>x_br11_2</t>
   </si>
   <si>
-    <t>Mode27</t>
-  </si>
-  <si>
-    <t>-3.36-50.00i</t>
+    <t>Mode57</t>
   </si>
   <si>
     <t>x_br11_3</t>
   </si>
   <si>
-    <t>Mode28</t>
-  </si>
-  <si>
-    <t>-1.60+50.03i</t>
+    <t>Mode58</t>
   </si>
   <si>
     <t>x_br11_4</t>
   </si>
   <si>
-    <t>Mode29</t>
-  </si>
-  <si>
-    <t>-1.60-50.03i</t>
+    <t>Mode59</t>
   </si>
   <si>
     <t>x_br12_1</t>
   </si>
   <si>
-    <t>Mode30</t>
-  </si>
-  <si>
-    <t>-1.67+50.00i</t>
+    <t>Mode60</t>
   </si>
   <si>
     <t>x_br12_2</t>
   </si>
   <si>
-    <t>Mode31</t>
-  </si>
-  <si>
-    <t>-1.67-50.00i</t>
-  </si>
-  <si>
-    <t>x_br13_1</t>
-  </si>
-  <si>
-    <t>Mode32</t>
-  </si>
-  <si>
-    <t>x_br13_2</t>
-  </si>
-  <si>
-    <t>Mode33</t>
-  </si>
-  <si>
-    <t>-0.16+6.33i</t>
-  </si>
-  <si>
-    <t>Mode34</t>
-  </si>
-  <si>
-    <t>-0.16-6.33i</t>
-  </si>
-  <si>
-    <t>Mode35</t>
-  </si>
-  <si>
-    <t>-7.03+4.71i</t>
-  </si>
-  <si>
-    <t>Mode36</t>
-  </si>
-  <si>
-    <t>-7.03-4.71i</t>
-  </si>
-  <si>
-    <t>Mode37</t>
-  </si>
-  <si>
-    <t>Mode38</t>
-  </si>
-  <si>
-    <t>-0.01+2.39i</t>
-  </si>
-  <si>
-    <t>Mode39</t>
-  </si>
-  <si>
-    <t>-0.01-2.39i</t>
-  </si>
-  <si>
-    <t>Mode40</t>
-  </si>
-  <si>
-    <t>Mode41</t>
+    <t>Mode61</t>
+  </si>
+  <si>
+    <t>x_br15_1</t>
+  </si>
+  <si>
+    <t>Mode62</t>
+  </si>
+  <si>
+    <t>x_br15_2</t>
+  </si>
+  <si>
+    <t>Mode63</t>
+  </si>
+  <si>
+    <t>Mode64</t>
+  </si>
+  <si>
+    <t>Mode65</t>
+  </si>
+  <si>
+    <t>Mode66</t>
+  </si>
+  <si>
+    <t>Mode67</t>
+  </si>
+  <si>
+    <t>Mode68</t>
+  </si>
+  <si>
+    <t>Mode69</t>
+  </si>
+  <si>
+    <t>Mode70</t>
+  </si>
+  <si>
+    <t>Mode71</t>
   </si>
   <si>
     <t>x_br22_1</t>
   </si>
   <si>
-    <t>Mode42</t>
+    <t>Mode72</t>
   </si>
   <si>
     <t>x_br22_2</t>
   </si>
   <si>
-    <t>Mode43</t>
+    <t>Mode73</t>
   </si>
   <si>
     <t>x_br22_3</t>
   </si>
   <si>
-    <t>Mode44</t>
-  </si>
-  <si>
-    <t>Inf</t>
+    <t>Mode74</t>
   </si>
   <si>
     <t>x_br22_4</t>
   </si>
   <si>
-    <t>Mode45</t>
+    <t>Mode75</t>
+  </si>
+  <si>
+    <t>x_br22_5</t>
+  </si>
+  <si>
+    <t>Mode76</t>
+  </si>
+  <si>
+    <t>x_br22_6</t>
+  </si>
+  <si>
+    <t>Mode77</t>
   </si>
   <si>
     <t>x_br23_1</t>
   </si>
   <si>
-    <t>Mode46</t>
+    <t>Mode78</t>
   </si>
   <si>
     <t>x_br23_2</t>
   </si>
   <si>
-    <t>Mode47</t>
-  </si>
-  <si>
-    <t>Mode48</t>
-  </si>
-  <si>
-    <t>Mode49</t>
-  </si>
-  <si>
-    <t>Mode50</t>
-  </si>
-  <si>
-    <t>Mode51</t>
-  </si>
-  <si>
-    <t>Mode52</t>
-  </si>
-  <si>
-    <t>Mode53</t>
-  </si>
-  <si>
-    <t>Mode54</t>
-  </si>
-  <si>
-    <t>Mode55</t>
-  </si>
-  <si>
-    <t>Mode56</t>
-  </si>
-  <si>
-    <t>Mode57</t>
+    <t>Mode79</t>
+  </si>
+  <si>
+    <t>x_br24_1</t>
+  </si>
+  <si>
+    <t>Mode80</t>
+  </si>
+  <si>
+    <t>x_br24_2</t>
+  </si>
+  <si>
+    <t>Mode81</t>
+  </si>
+  <si>
+    <t>x_br25_1</t>
+  </si>
+  <si>
+    <t>Mode82</t>
+  </si>
+  <si>
+    <t>x_br25_2</t>
+  </si>
+  <si>
+    <t>Mode83</t>
+  </si>
+  <si>
+    <t>Mode84</t>
+  </si>
+  <si>
+    <t>Mode85</t>
+  </si>
+  <si>
+    <t>Mode86</t>
+  </si>
+  <si>
+    <t>Mode87</t>
+  </si>
+  <si>
+    <t>Mode88</t>
+  </si>
+  <si>
+    <t>Mode89</t>
+  </si>
+  <si>
+    <t>Mode90</t>
+  </si>
+  <si>
+    <t>Mode91</t>
+  </si>
+  <si>
+    <t>Mode92</t>
+  </si>
+  <si>
+    <t>Mode93</t>
   </si>
   <si>
     <t>x_br33_1</t>
   </si>
   <si>
-    <t>Mode58</t>
+    <t>Mode94</t>
   </si>
   <si>
     <t>x_br33_2</t>
   </si>
   <si>
-    <t>Mode59</t>
+    <t>Mode95</t>
   </si>
   <si>
     <t>x_br33_3</t>
   </si>
   <si>
-    <t>Mode60</t>
+    <t>Mode96</t>
   </si>
   <si>
     <t>x_br33_4</t>
   </si>
   <si>
-    <t>Mode61</t>
+    <t>Mode97</t>
+  </si>
+  <si>
+    <t>x_br33_5</t>
+  </si>
+  <si>
+    <t>Mode98</t>
+  </si>
+  <si>
+    <t>x_br33_6</t>
+  </si>
+  <si>
+    <t>Mode99</t>
   </si>
   <si>
     <t>x_br34_1</t>
   </si>
   <si>
-    <t>Mode62</t>
+    <t>Mode100</t>
   </si>
   <si>
     <t>x_br34_2</t>
   </si>
   <si>
-    <t>Mode63</t>
-  </si>
-  <si>
-    <t>Mode64</t>
-  </si>
-  <si>
-    <t>Mode65</t>
-  </si>
-  <si>
-    <t>Mode66</t>
-  </si>
-  <si>
-    <t>Mode67</t>
-  </si>
-  <si>
-    <t>Mode68</t>
-  </si>
-  <si>
-    <t>Mode69</t>
+    <t>Mode101</t>
+  </si>
+  <si>
+    <t>Mode102</t>
+  </si>
+  <si>
+    <t>Mode103</t>
+  </si>
+  <si>
+    <t>Mode104</t>
+  </si>
+  <si>
+    <t>Mode105</t>
+  </si>
+  <si>
+    <t>Mode106</t>
+  </si>
+  <si>
+    <t>Mode107</t>
+  </si>
+  <si>
+    <t>Mode108</t>
+  </si>
+  <si>
+    <t>Mode109</t>
+  </si>
+  <si>
+    <t>Mode110</t>
+  </si>
+  <si>
+    <t>Mode111</t>
   </si>
   <si>
     <t>x_br44_1</t>
   </si>
   <si>
-    <t>Mode70</t>
+    <t>Mode112</t>
   </si>
   <si>
     <t>x_br44_2</t>
   </si>
   <si>
-    <t>Mode71</t>
+    <t>Mode113</t>
   </si>
   <si>
     <t>x_br44_3</t>
   </si>
   <si>
-    <t>Mode72</t>
+    <t>Mode114</t>
   </si>
   <si>
     <t>x_br44_4</t>
   </si>
   <si>
-    <t>Mode73</t>
+    <t>Mode115</t>
+  </si>
+  <si>
+    <t>x_br45_1</t>
+  </si>
+  <si>
+    <t>Mode116</t>
+  </si>
+  <si>
+    <t>x_br45_2</t>
+  </si>
+  <si>
+    <t>Mode117</t>
+  </si>
+  <si>
+    <t>x_br47_1</t>
+  </si>
+  <si>
+    <t>Mode118</t>
+  </si>
+  <si>
+    <t>x_br47_2</t>
+  </si>
+  <si>
+    <t>Mode119</t>
+  </si>
+  <si>
+    <t>x_br49_1</t>
+  </si>
+  <si>
+    <t>Mode120</t>
+  </si>
+  <si>
+    <t>x_br49_2</t>
+  </si>
+  <si>
+    <t>Mode121</t>
+  </si>
+  <si>
+    <t>Mode122</t>
+  </si>
+  <si>
+    <t>Mode123</t>
+  </si>
+  <si>
+    <t>Mode124</t>
+  </si>
+  <si>
+    <t>Mode125</t>
+  </si>
+  <si>
+    <t>Mode126</t>
+  </si>
+  <si>
+    <t>Mode127</t>
+  </si>
+  <si>
+    <t>Mode128</t>
+  </si>
+  <si>
+    <t>Mode129</t>
+  </si>
+  <si>
+    <t>Mode130</t>
+  </si>
+  <si>
+    <t>Mode131</t>
+  </si>
+  <si>
+    <t>Mode132</t>
+  </si>
+  <si>
+    <t>Mode133</t>
+  </si>
+  <si>
+    <t>Mode134</t>
+  </si>
+  <si>
+    <t>Mode135</t>
+  </si>
+  <si>
+    <t>Mode136</t>
+  </si>
+  <si>
+    <t>Mode137</t>
+  </si>
+  <si>
+    <t>Mode138</t>
+  </si>
+  <si>
+    <t>Mode139</t>
+  </si>
+  <si>
+    <t>x_br55_1</t>
+  </si>
+  <si>
+    <t>Mode140</t>
+  </si>
+  <si>
+    <t>x_br55_2</t>
+  </si>
+  <si>
+    <t>Mode141</t>
+  </si>
+  <si>
+    <t>x_br55_3</t>
+  </si>
+  <si>
+    <t>Mode142</t>
+  </si>
+  <si>
+    <t>x_br55_4</t>
+  </si>
+  <si>
+    <t>Mode143</t>
+  </si>
+  <si>
+    <t>x_br55_5</t>
+  </si>
+  <si>
+    <t>Mode144</t>
+  </si>
+  <si>
+    <t>x_br55_6</t>
+  </si>
+  <si>
+    <t>Mode145</t>
+  </si>
+  <si>
+    <t>x_br56_1</t>
+  </si>
+  <si>
+    <t>Mode146</t>
+  </si>
+  <si>
+    <t>x_br56_2</t>
+  </si>
+  <si>
+    <t>Mode147</t>
+  </si>
+  <si>
+    <t>Mode148</t>
+  </si>
+  <si>
+    <t>Mode149</t>
+  </si>
+  <si>
+    <t>Mode150</t>
+  </si>
+  <si>
+    <t>Mode151</t>
+  </si>
+  <si>
+    <t>Mode152</t>
+  </si>
+  <si>
+    <t>Mode153</t>
+  </si>
+  <si>
+    <t>x_br66_1</t>
+  </si>
+  <si>
+    <t>Mode154</t>
+  </si>
+  <si>
+    <t>x_br66_2</t>
+  </si>
+  <si>
+    <t>Mode155</t>
+  </si>
+  <si>
+    <t>x_br66_3</t>
+  </si>
+  <si>
+    <t>Mode156</t>
+  </si>
+  <si>
+    <t>x_br66_4</t>
+  </si>
+  <si>
+    <t>Mode157</t>
+  </si>
+  <si>
+    <t>x_br66_5</t>
+  </si>
+  <si>
+    <t>Mode158</t>
+  </si>
+  <si>
+    <t>x_br66_6</t>
+  </si>
+  <si>
+    <t>Mode159</t>
+  </si>
+  <si>
+    <t>x_br611_1</t>
+  </si>
+  <si>
+    <t>Mode160</t>
+  </si>
+  <si>
+    <t>x_br611_2</t>
+  </si>
+  <si>
+    <t>Mode161</t>
+  </si>
+  <si>
+    <t>x_br612_1</t>
+  </si>
+  <si>
+    <t>Mode162</t>
+  </si>
+  <si>
+    <t>x_br612_2</t>
+  </si>
+  <si>
+    <t>Mode163</t>
+  </si>
+  <si>
+    <t>x_br613_1</t>
+  </si>
+  <si>
+    <t>Mode164</t>
+  </si>
+  <si>
+    <t>x_br613_2</t>
+  </si>
+  <si>
+    <t>Mode165</t>
+  </si>
+  <si>
+    <t>Mode166</t>
+  </si>
+  <si>
+    <t>Mode167</t>
+  </si>
+  <si>
+    <t>Mode168</t>
+  </si>
+  <si>
+    <t>Mode169</t>
+  </si>
+  <si>
+    <t>Mode170</t>
+  </si>
+  <si>
+    <t>Mode171</t>
+  </si>
+  <si>
+    <t>Mode172</t>
+  </si>
+  <si>
+    <t>Mode173</t>
+  </si>
+  <si>
+    <t>Mode174</t>
+  </si>
+  <si>
+    <t>Mode175</t>
+  </si>
+  <si>
+    <t>x_br77_1</t>
+  </si>
+  <si>
+    <t>Mode176</t>
+  </si>
+  <si>
+    <t>x_br77_2</t>
+  </si>
+  <si>
+    <t>Mode177</t>
+  </si>
+  <si>
+    <t>x_br77_3</t>
+  </si>
+  <si>
+    <t>Mode178</t>
+  </si>
+  <si>
+    <t>x_br77_4</t>
+  </si>
+  <si>
+    <t>Mode179</t>
+  </si>
+  <si>
+    <t>x_br78_1</t>
+  </si>
+  <si>
+    <t>Mode180</t>
+  </si>
+  <si>
+    <t>x_br78_2</t>
+  </si>
+  <si>
+    <t>Mode181</t>
+  </si>
+  <si>
+    <t>x_br79_1</t>
+  </si>
+  <si>
+    <t>Mode182</t>
+  </si>
+  <si>
+    <t>x_br79_2</t>
+  </si>
+  <si>
+    <t>Mode183</t>
+  </si>
+  <si>
+    <t>Mode184</t>
+  </si>
+  <si>
+    <t>Mode185</t>
+  </si>
+  <si>
+    <t>Mode186</t>
+  </si>
+  <si>
+    <t>Mode187</t>
+  </si>
+  <si>
+    <t>Mode188</t>
+  </si>
+  <si>
+    <t>Mode189</t>
+  </si>
+  <si>
+    <t>Mode190</t>
+  </si>
+  <si>
+    <t>Mode191</t>
+  </si>
+  <si>
+    <t>x_br88_1</t>
+  </si>
+  <si>
+    <t>Mode192</t>
+  </si>
+  <si>
+    <t>x_br88_2</t>
+  </si>
+  <si>
+    <t>Mode193</t>
+  </si>
+  <si>
+    <t>x_br88_3</t>
+  </si>
+  <si>
+    <t>Mode194</t>
+  </si>
+  <si>
+    <t>x_br88_4</t>
+  </si>
+  <si>
+    <t>Mode195</t>
+  </si>
+  <si>
+    <t>Mode196</t>
+  </si>
+  <si>
+    <t>Mode197</t>
+  </si>
+  <si>
+    <t>Mode198</t>
+  </si>
+  <si>
+    <t>Mode199</t>
+  </si>
+  <si>
+    <t>Mode200</t>
+  </si>
+  <si>
+    <t>Mode201</t>
+  </si>
+  <si>
+    <t>Mode202</t>
+  </si>
+  <si>
+    <t>Mode203</t>
+  </si>
+  <si>
+    <t>x_br99_1</t>
+  </si>
+  <si>
+    <t>Mode204</t>
+  </si>
+  <si>
+    <t>x_br99_2</t>
+  </si>
+  <si>
+    <t>Mode205</t>
+  </si>
+  <si>
+    <t>x_br99_3</t>
+  </si>
+  <si>
+    <t>Mode206</t>
+  </si>
+  <si>
+    <t>x_br99_4</t>
+  </si>
+  <si>
+    <t>Mode207</t>
+  </si>
+  <si>
+    <t>x_br99_5</t>
+  </si>
+  <si>
+    <t>Mode208</t>
+  </si>
+  <si>
+    <t>x_br99_6</t>
+  </si>
+  <si>
+    <t>Mode209</t>
+  </si>
+  <si>
+    <t>x_br910_1</t>
+  </si>
+  <si>
+    <t>Mode210</t>
+  </si>
+  <si>
+    <t>x_br910_2</t>
+  </si>
+  <si>
+    <t>Mode211</t>
+  </si>
+  <si>
+    <t>x_br914_1</t>
+  </si>
+  <si>
+    <t>Mode212</t>
+  </si>
+  <si>
+    <t>x_br914_2</t>
+  </si>
+  <si>
+    <t>Mode213</t>
+  </si>
+  <si>
+    <t>Mode214</t>
+  </si>
+  <si>
+    <t>Mode215</t>
+  </si>
+  <si>
+    <t>Mode216</t>
+  </si>
+  <si>
+    <t>Mode217</t>
+  </si>
+  <si>
+    <t>Mode218</t>
+  </si>
+  <si>
+    <t>Mode219</t>
+  </si>
+  <si>
+    <t>Mode220</t>
+  </si>
+  <si>
+    <t>Mode221</t>
+  </si>
+  <si>
+    <t>x_br1010_1</t>
+  </si>
+  <si>
+    <t>Mode222</t>
+  </si>
+  <si>
+    <t>x_br1010_2</t>
+  </si>
+  <si>
+    <t>Mode223</t>
+  </si>
+  <si>
+    <t>x_br1010_3</t>
+  </si>
+  <si>
+    <t>Mode224</t>
+  </si>
+  <si>
+    <t>x_br1010_4</t>
+  </si>
+  <si>
+    <t>Mode225</t>
+  </si>
+  <si>
+    <t>x_br1010_5</t>
+  </si>
+  <si>
+    <t>Mode226</t>
+  </si>
+  <si>
+    <t>x_br1010_6</t>
+  </si>
+  <si>
+    <t>Mode227</t>
+  </si>
+  <si>
+    <t>x_br1011_1</t>
+  </si>
+  <si>
+    <t>Mode228</t>
+  </si>
+  <si>
+    <t>x_br1011_2</t>
+  </si>
+  <si>
+    <t>Mode229</t>
+  </si>
+  <si>
+    <t>Mode230</t>
+  </si>
+  <si>
+    <t>Mode231</t>
+  </si>
+  <si>
+    <t>Mode232</t>
+  </si>
+  <si>
+    <t>Mode233</t>
+  </si>
+  <si>
+    <t>Mode234</t>
+  </si>
+  <si>
+    <t>Mode235</t>
+  </si>
+  <si>
+    <t>Mode236</t>
+  </si>
+  <si>
+    <t>Mode237</t>
+  </si>
+  <si>
+    <t>Mode238</t>
+  </si>
+  <si>
+    <t>Mode239</t>
+  </si>
+  <si>
+    <t>x_br1111_1</t>
+  </si>
+  <si>
+    <t>Mode240</t>
+  </si>
+  <si>
+    <t>x_br1111_2</t>
+  </si>
+  <si>
+    <t>Mode241</t>
+  </si>
+  <si>
+    <t>x_br1111_3</t>
+  </si>
+  <si>
+    <t>Mode242</t>
+  </si>
+  <si>
+    <t>x_br1111_4</t>
+  </si>
+  <si>
+    <t>Mode243</t>
+  </si>
+  <si>
+    <t>x_br1111_5</t>
+  </si>
+  <si>
+    <t>Mode244</t>
+  </si>
+  <si>
+    <t>x_br1111_6</t>
+  </si>
+  <si>
+    <t>Mode245</t>
+  </si>
+  <si>
+    <t>Mode246</t>
+  </si>
+  <si>
+    <t>Mode247</t>
+  </si>
+  <si>
+    <t>Mode248</t>
+  </si>
+  <si>
+    <t>Mode249</t>
+  </si>
+  <si>
+    <t>x_br1212_1</t>
+  </si>
+  <si>
+    <t>Mode250</t>
+  </si>
+  <si>
+    <t>x_br1212_2</t>
+  </si>
+  <si>
+    <t>Mode251</t>
+  </si>
+  <si>
+    <t>x_br1212_3</t>
+  </si>
+  <si>
+    <t>Mode252</t>
+  </si>
+  <si>
+    <t>x_br1212_4</t>
+  </si>
+  <si>
+    <t>Mode253</t>
+  </si>
+  <si>
+    <t>x_br1212_5</t>
+  </si>
+  <si>
+    <t>Mode254</t>
+  </si>
+  <si>
+    <t>x_br1212_6</t>
+  </si>
+  <si>
+    <t>Mode255</t>
+  </si>
+  <si>
+    <t>x_br1213_1</t>
+  </si>
+  <si>
+    <t>Mode256</t>
+  </si>
+  <si>
+    <t>x_br1213_2</t>
+  </si>
+  <si>
+    <t>Mode257</t>
+  </si>
+  <si>
+    <t>Mode258</t>
+  </si>
+  <si>
+    <t>Mode259</t>
+  </si>
+  <si>
+    <t>Mode260</t>
+  </si>
+  <si>
+    <t>Mode261</t>
+  </si>
+  <si>
+    <t>Mode262</t>
+  </si>
+  <si>
+    <t>Mode263</t>
+  </si>
+  <si>
+    <t>Mode264</t>
+  </si>
+  <si>
+    <t>Mode265</t>
+  </si>
+  <si>
+    <t>Mode266</t>
+  </si>
+  <si>
+    <t>Mode267</t>
+  </si>
+  <si>
+    <t>x_br1313_1</t>
+  </si>
+  <si>
+    <t>Mode268</t>
+  </si>
+  <si>
+    <t>x_br1313_2</t>
+  </si>
+  <si>
+    <t>Mode269</t>
+  </si>
+  <si>
+    <t>x_br1313_3</t>
+  </si>
+  <si>
+    <t>Mode270</t>
+  </si>
+  <si>
+    <t>x_br1313_4</t>
+  </si>
+  <si>
+    <t>Mode271</t>
+  </si>
+  <si>
+    <t>x_br1313_5</t>
+  </si>
+  <si>
+    <t>Mode272</t>
+  </si>
+  <si>
+    <t>x_br1313_6</t>
+  </si>
+  <si>
+    <t>Mode273</t>
+  </si>
+  <si>
+    <t>x_br1314_1</t>
+  </si>
+  <si>
+    <t>Mode274</t>
+  </si>
+  <si>
+    <t>x_br1314_2</t>
+  </si>
+  <si>
+    <t>Mode275</t>
+  </si>
+  <si>
+    <t>Mode276</t>
+  </si>
+  <si>
+    <t>Mode277</t>
+  </si>
+  <si>
+    <t>Mode278</t>
+  </si>
+  <si>
+    <t>Mode279</t>
+  </si>
+  <si>
+    <t>Mode280</t>
+  </si>
+  <si>
+    <t>Mode281</t>
+  </si>
+  <si>
+    <t>Mode282</t>
+  </si>
+  <si>
+    <t>Mode283</t>
+  </si>
+  <si>
+    <t>Mode284</t>
+  </si>
+  <si>
+    <t>Mode285</t>
+  </si>
+  <si>
+    <t>x_br1414_1</t>
+  </si>
+  <si>
+    <t>Mode286</t>
+  </si>
+  <si>
+    <t>x_br1414_2</t>
+  </si>
+  <si>
+    <t>Mode287</t>
+  </si>
+  <si>
+    <t>x_br1414_3</t>
+  </si>
+  <si>
+    <t>Mode288</t>
+  </si>
+  <si>
+    <t>x_br1414_4</t>
+  </si>
+  <si>
+    <t>Mode289</t>
+  </si>
+  <si>
+    <t>x_br1414_5</t>
+  </si>
+  <si>
+    <t>Mode290</t>
+  </si>
+  <si>
+    <t>x_br1414_6</t>
+  </si>
+  <si>
+    <t>Mode291</t>
   </si>
   <si>
     <t>xi_1</t>
   </si>
   <si>
-    <t>Mode74</t>
+    <t>Mode292</t>
   </si>
   <si>
     <t>xi_2</t>
   </si>
   <si>
-    <t>Mode75</t>
+    <t>Mode293</t>
   </si>
   <si>
     <t>xi_3</t>
   </si>
   <si>
-    <t>Mode76</t>
+    <t>Mode294</t>
   </si>
   <si>
     <t>xi_4</t>
   </si>
   <si>
-    <t>Mode77</t>
+    <t>Mode295</t>
   </si>
   <si>
     <t>xi_5</t>
   </si>
   <si>
-    <t>Mode78</t>
+    <t>Mode296</t>
   </si>
   <si>
     <t>xi_6</t>
   </si>
   <si>
-    <t>Mode79</t>
+    <t>Mode297</t>
   </si>
   <si>
     <t>xi_7</t>
   </si>
   <si>
-    <t>Mode80</t>
+    <t>Mode298</t>
   </si>
   <si>
     <t>xi_8</t>
   </si>
   <si>
-    <t>Mode81</t>
+    <t>Mode299</t>
+  </si>
+  <si>
+    <t>xi_9</t>
+  </si>
+  <si>
+    <t>Mode300</t>
+  </si>
+  <si>
+    <t>xi_10</t>
+  </si>
+  <si>
+    <t>Mode301</t>
+  </si>
+  <si>
+    <t>xi_11</t>
+  </si>
+  <si>
+    <t>Mode302</t>
+  </si>
+  <si>
+    <t>xi_12</t>
+  </si>
+  <si>
+    <t>Mode303</t>
+  </si>
+  <si>
+    <t>xi_13</t>
+  </si>
+  <si>
+    <t>Mode304</t>
+  </si>
+  <si>
+    <t>xi_14</t>
+  </si>
+  <si>
+    <t>Mode305</t>
+  </si>
+  <si>
+    <t>xi_15</t>
+  </si>
+  <si>
+    <t>Mode306</t>
+  </si>
+  <si>
+    <t>xi_16</t>
+  </si>
+  <si>
+    <t>Mode307</t>
+  </si>
+  <si>
+    <t>xi_17</t>
+  </si>
+  <si>
+    <t>Mode308</t>
+  </si>
+  <si>
+    <t>xi_18</t>
+  </si>
+  <si>
+    <t>Mode309</t>
+  </si>
+  <si>
+    <t>xi_19</t>
+  </si>
+  <si>
+    <t>Mode310</t>
+  </si>
+  <si>
+    <t>xi_20</t>
+  </si>
+  <si>
+    <t>Mode311</t>
+  </si>
+  <si>
+    <t>xi_21</t>
+  </si>
+  <si>
+    <t>Mode312</t>
+  </si>
+  <si>
+    <t>xi_22</t>
+  </si>
+  <si>
+    <t>Mode313</t>
+  </si>
+  <si>
+    <t>xi_23</t>
+  </si>
+  <si>
+    <t>Mode314</t>
+  </si>
+  <si>
+    <t>xi_24</t>
+  </si>
+  <si>
+    <t>Mode315</t>
+  </si>
+  <si>
+    <t>xi_25</t>
+  </si>
+  <si>
+    <t>Mode316</t>
+  </si>
+  <si>
+    <t>xi_26</t>
+  </si>
+  <si>
+    <t>Mode317</t>
+  </si>
+  <si>
+    <t>xi_27</t>
+  </si>
+  <si>
+    <t>Mode318</t>
+  </si>
+  <si>
+    <t>xi_28</t>
+  </si>
+  <si>
+    <t>Mode319</t>
   </si>
   <si>
     <t>Select devices and mode for bode-plot and Greybox Layer1&amp;2 analysis</t>
@@ -562,13 +1534,331 @@
     <t>d-d</t>
   </si>
   <si>
+    <t>-42026.20+60.00i</t>
+  </si>
+  <si>
     <t>d-q</t>
   </si>
   <si>
+    <t>-42026.20-60.00i</t>
+  </si>
+  <si>
     <t>q-d</t>
   </si>
   <si>
+    <t>-23353.01+60.00i</t>
+  </si>
+  <si>
     <t>q-q</t>
+  </si>
+  <si>
+    <t>-23353.01-60.00i</t>
+  </si>
+  <si>
+    <t>-17648.73+60.00i</t>
+  </si>
+  <si>
+    <t>-17648.73-60.00i</t>
+  </si>
+  <si>
+    <t>-11293.07+60.00i</t>
+  </si>
+  <si>
+    <t>-11293.07-60.00i</t>
+  </si>
+  <si>
+    <t>-7471.06+60.01i</t>
+  </si>
+  <si>
+    <t>-7471.06-60.01i</t>
+  </si>
+  <si>
+    <t>-2657.82+60.01i</t>
+  </si>
+  <si>
+    <t>-2657.82-60.01i</t>
+  </si>
+  <si>
+    <t>-130.03+2197.64i</t>
+  </si>
+  <si>
+    <t>-130.03-2197.64i</t>
+  </si>
+  <si>
+    <t>-130.03+2077.64i</t>
+  </si>
+  <si>
+    <t>-130.03-2077.64i</t>
+  </si>
+  <si>
+    <t>-69.50+1941.65i</t>
+  </si>
+  <si>
+    <t>-69.50-1941.65i</t>
+  </si>
+  <si>
+    <t>-69.50+1821.65i</t>
+  </si>
+  <si>
+    <t>-69.50-1821.65i</t>
+  </si>
+  <si>
+    <t>-107.43+1357.54i</t>
+  </si>
+  <si>
+    <t>-107.43-1357.54i</t>
+  </si>
+  <si>
+    <t>-863.15+957.21i</t>
+  </si>
+  <si>
+    <t>-863.15-957.21i</t>
+  </si>
+  <si>
+    <t>-107.43+1237.54i</t>
+  </si>
+  <si>
+    <t>-107.43-1237.54i</t>
+  </si>
+  <si>
+    <t>-863.15+837.21i</t>
+  </si>
+  <si>
+    <t>-863.15-837.21i</t>
+  </si>
+  <si>
+    <t>-216.12+776.85i</t>
+  </si>
+  <si>
+    <t>-216.12-776.85i</t>
+  </si>
+  <si>
+    <t>-216.12+656.86i</t>
+  </si>
+  <si>
+    <t>-216.12-656.86i</t>
+  </si>
+  <si>
+    <t>-93.93+460.31i</t>
+  </si>
+  <si>
+    <t>-93.93-460.31i</t>
+  </si>
+  <si>
+    <t>-93.60+340.95i</t>
+  </si>
+  <si>
+    <t>-93.60-340.95i</t>
+  </si>
+  <si>
+    <t>-120.97+89.47i</t>
+  </si>
+  <si>
+    <t>-120.97-89.47i</t>
+  </si>
+  <si>
+    <t>-83.80+91.12i</t>
+  </si>
+  <si>
+    <t>-83.80-91.12i</t>
+  </si>
+  <si>
+    <t>-38.72+76.60i</t>
+  </si>
+  <si>
+    <t>-38.72-76.60i</t>
+  </si>
+  <si>
+    <t>-40.95+62.70i</t>
+  </si>
+  <si>
+    <t>-40.95-62.70i</t>
+  </si>
+  <si>
+    <t>-33.38+39.26i</t>
+  </si>
+  <si>
+    <t>-33.38-39.26i</t>
+  </si>
+  <si>
+    <t>-28.14+60.01i</t>
+  </si>
+  <si>
+    <t>-28.14-60.01i</t>
+  </si>
+  <si>
+    <t>-18.92+36.84i</t>
+  </si>
+  <si>
+    <t>-18.92-36.84i</t>
+  </si>
+  <si>
+    <t>-7.38+60.01i</t>
+  </si>
+  <si>
+    <t>-7.38-60.01i</t>
+  </si>
+  <si>
+    <t>-10.68+60.01i</t>
+  </si>
+  <si>
+    <t>-10.68-60.01i</t>
+  </si>
+  <si>
+    <t>-5.08+60.05i</t>
+  </si>
+  <si>
+    <t>-5.08-60.05i</t>
+  </si>
+  <si>
+    <t>-11.99+60.01i</t>
+  </si>
+  <si>
+    <t>-11.99-60.01i</t>
+  </si>
+  <si>
+    <t>-0.31+20.86i</t>
+  </si>
+  <si>
+    <t>-0.31-20.86i</t>
+  </si>
+  <si>
+    <t>-15.09+60.09i</t>
+  </si>
+  <si>
+    <t>-15.09-60.09i</t>
+  </si>
+  <si>
+    <t>-16.64+60.01i</t>
+  </si>
+  <si>
+    <t>-16.64-60.01i</t>
+  </si>
+  <si>
+    <t>-12.95+4.40i</t>
+  </si>
+  <si>
+    <t>-12.95-4.40i</t>
+  </si>
+  <si>
+    <t>-13.82+2.86i</t>
+  </si>
+  <si>
+    <t>-13.82-2.86i</t>
+  </si>
+  <si>
+    <t>-8.07+7.30i</t>
+  </si>
+  <si>
+    <t>-8.07-7.30i</t>
+  </si>
+  <si>
+    <t>-0.19+5.55i</t>
+  </si>
+  <si>
+    <t>-0.19-5.55i</t>
+  </si>
+  <si>
+    <t>-0.11+2.17i</t>
+  </si>
+  <si>
+    <t>-0.11-2.17i</t>
+  </si>
+  <si>
+    <t>-0.11+1.80i</t>
+  </si>
+  <si>
+    <t>-0.11-1.80i</t>
+  </si>
+  <si>
+    <t>-6.27+1.15i</t>
+  </si>
+  <si>
+    <t>-6.27-1.15i</t>
+  </si>
+  <si>
+    <t>-0.11+1.56i</t>
+  </si>
+  <si>
+    <t>-0.11-1.56i</t>
+  </si>
+  <si>
+    <t>-7.79+0.27i</t>
+  </si>
+  <si>
+    <t>-7.79-0.27i</t>
+  </si>
+  <si>
+    <t>-7.59+0.54i</t>
+  </si>
+  <si>
+    <t>-7.59-0.54i</t>
+  </si>
+  <si>
+    <t>-19.26+60.00i</t>
+  </si>
+  <si>
+    <t>-19.26-60.00i</t>
+  </si>
+  <si>
+    <t>-0.43+60.03i</t>
+  </si>
+  <si>
+    <t>-0.43-60.03i</t>
+  </si>
+  <si>
+    <t>-0.23+60.00i</t>
+  </si>
+  <si>
+    <t>-0.23-60.00i</t>
+  </si>
+  <si>
+    <t>-0.15+60.00i</t>
+  </si>
+  <si>
+    <t>-0.15-60.00i</t>
+  </si>
+  <si>
+    <t>-0.12+60.01i</t>
+  </si>
+  <si>
+    <t>-0.12-60.01i</t>
+  </si>
+  <si>
+    <t>-0.02+60.00i</t>
+  </si>
+  <si>
+    <t>-0.02-60.00i</t>
+  </si>
+  <si>
+    <t>-19.65+60.00i</t>
+  </si>
+  <si>
+    <t>-19.65-60.00i</t>
+  </si>
+  <si>
+    <t>-0.07+60.00i</t>
+  </si>
+  <si>
+    <t>-0.07-60.00i</t>
+  </si>
+  <si>
+    <t>-0.04+60.00i</t>
+  </si>
+  <si>
+    <t>-0.04-60.00i</t>
+  </si>
+  <si>
+    <t>-0.05+60.00i</t>
+  </si>
+  <si>
+    <t>-0.05-60.00i</t>
+  </si>
+  <si>
+    <t>-0.05+60.01i</t>
+  </si>
+  <si>
+    <t>-0.05-60.01i</t>
   </si>
 </sst>
 </file>
@@ -919,17 +2209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1C4EE4-1451-4E18-99AA-1CB6E244FA9E}">
-  <dimension ref="A1:G87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6045A0A3-3237-4B8F-855B-EE4F7662FBC4}">
+  <dimension ref="A1:G325"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1020,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1037,13 +2324,13 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1051,7 +2338,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1060,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1074,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1091,13 +2378,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1111,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>-0.23</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1128,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>-9.99</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1139,7 +2426,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1148,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1165,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1182,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1199,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1216,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1227,7 +2514,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1236,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1253,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1270,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1281,16 +2568,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1298,33 +2585,36 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27">
-        <v>-201.14</v>
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1332,16 +2622,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1349,16 +2639,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1366,16 +2656,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1383,16 +2673,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1400,563 +2690,572 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
         <v>67</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
         <v>68</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
         <v>69</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>70</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
         <v>71</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>73</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
         <v>74</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
         <v>75</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
         <v>76</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="F55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
         <v>77</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
         <v>78</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
         <v>79</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
         <v>80</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
         <v>81</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
         <v>82</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>83</v>
       </c>
-      <c r="F37" t="s">
+      <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
         <v>85</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>86</v>
       </c>
-      <c r="F38">
-        <v>-19.07</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
         <v>87</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>88</v>
       </c>
-      <c r="F39" t="s">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
         <v>89</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43">
-        <v>-6.37</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47">
-        <v>-0.06</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" t="s">
-        <v>109</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" t="s">
-        <v>109</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>127</v>
-      </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1964,16 +3263,16 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="F65" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1981,16 +3280,16 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -1998,16 +3297,16 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2015,16 +3314,16 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2032,16 +3331,16 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2049,16 +3348,16 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2066,16 +3365,16 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2083,16 +3382,16 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2100,16 +3399,16 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2117,16 +3416,16 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2134,16 +3433,16 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2151,16 +3450,16 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2168,16 +3467,16 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>84</v>
+        <v>107</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2185,16 +3484,16 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2202,16 +3501,16 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2219,16 +3518,16 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>81</v>
+        <v>113</v>
+      </c>
+      <c r="F80">
+        <v>-27488814667029.602</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2236,16 +3535,16 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>84</v>
+        <v>115</v>
+      </c>
+      <c r="F81">
+        <v>-3.4647129877112801E+18</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2253,16 +3552,16 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
+        <v>117</v>
+      </c>
+      <c r="F82">
+        <v>2.1617913278308101E+18</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2270,16 +3569,16 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>84</v>
+        <v>119</v>
+      </c>
+      <c r="F83">
+        <v>1.2894679496433701E+19</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2287,16 +3586,16 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>81</v>
+        <v>121</v>
+      </c>
+      <c r="F84">
+        <v>1.7625663152614001E+19</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2304,16 +3603,16 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>84</v>
+        <v>123</v>
+      </c>
+      <c r="F85">
+        <v>-49510.84</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2321,16 +3620,16 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>81</v>
+        <v>125</v>
+      </c>
+      <c r="F86">
+        <v>1.5436667503824198E+17</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2338,18 +3637,4064 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>127</v>
+      </c>
+      <c r="F87">
+        <v>5.1660463028344397E+17</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88">
+        <v>-7.3164128751756E+16</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89">
+        <v>1.3886299002317501E+17</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90">
+        <v>91447141437665</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91">
+        <v>1972921652679780</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92">
+        <v>88389182.540000007</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93">
+        <v>-6784764982856250</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>136</v>
+      </c>
+      <c r="F94">
+        <v>3114762360408240</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>137</v>
+      </c>
+      <c r="F95">
+        <v>-19153914.32</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96">
+        <v>-3.21437669887522E+16</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97">
+        <v>54916689.329999998</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>140</v>
+      </c>
+      <c r="F98">
+        <v>-4401.2299999999996</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99">
+        <v>-1069.52</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>143</v>
+      </c>
+      <c r="F100">
+        <v>-2025.57</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>145</v>
+      </c>
+      <c r="F101">
+        <v>-9434.7199999999993</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102">
+        <v>-5875.2</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103">
+        <v>-25416.720000000001</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104">
+        <v>497.88</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>153</v>
+      </c>
+      <c r="F105">
+        <v>-10893.84</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106">
+        <v>-5769.02</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>157</v>
+      </c>
+      <c r="F107">
+        <v>-5934.76</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>158</v>
+      </c>
+      <c r="F108">
+        <v>-2863.51</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>159</v>
+      </c>
+      <c r="F109">
+        <v>259.41000000000003</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110">
+        <v>1169.02</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>161</v>
+      </c>
+      <c r="F111">
+        <v>-1102.1400000000001</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>162</v>
+      </c>
+      <c r="F112">
+        <v>1098.5899999999999</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>163</v>
+      </c>
+      <c r="F113">
+        <v>1770.4</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>164</v>
+      </c>
+      <c r="F114">
+        <v>1573.39</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>165</v>
+      </c>
+      <c r="F115">
+        <v>587.58000000000004</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
         <v>166</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F116">
+        <v>-349.93</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
         <v>167</v>
       </c>
-      <c r="F87" t="s">
-        <v>84</v>
-      </c>
-      <c r="G87">
+      <c r="F117">
+        <v>-502.72</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>169</v>
+      </c>
+      <c r="F118">
+        <v>669.12</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>171</v>
+      </c>
+      <c r="F119">
+        <v>448.79</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>173</v>
+      </c>
+      <c r="F120">
+        <v>469.43</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>175</v>
+      </c>
+      <c r="F121">
+        <v>284.5</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>177</v>
+      </c>
+      <c r="F122">
+        <v>522.66</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>178</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>179</v>
+      </c>
+      <c r="F123">
+        <v>210.3</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>181</v>
+      </c>
+      <c r="F124">
+        <v>-126.14</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>183</v>
+      </c>
+      <c r="F125">
+        <v>-612.14</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>185</v>
+      </c>
+      <c r="F126">
+        <v>323.76</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>187</v>
+      </c>
+      <c r="F127">
+        <v>-200.85</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>188</v>
+      </c>
+      <c r="F128">
+        <v>1.01</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>178</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>189</v>
+      </c>
+      <c r="F129">
+        <v>-245.72</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130">
+        <v>-328.45</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>191</v>
+      </c>
+      <c r="F131">
+        <v>-14.12</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>192</v>
+      </c>
+      <c r="F132">
+        <v>-181.42</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>186</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>193</v>
+      </c>
+      <c r="F133">
+        <v>-57.7</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>194</v>
+      </c>
+      <c r="F134">
+        <v>-50.89</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>195</v>
+      </c>
+      <c r="F135">
+        <v>-95.14</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>196</v>
+      </c>
+      <c r="F136">
+        <v>-87.91</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>197</v>
+      </c>
+      <c r="F137">
+        <v>21.46</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>198</v>
+      </c>
+      <c r="F138">
+        <v>-127.65</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>199</v>
+      </c>
+      <c r="F139">
+        <v>-27.29</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>96</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F140">
+        <v>-82.34</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>201</v>
+      </c>
+      <c r="F141">
+        <v>-90.24</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>202</v>
+      </c>
+      <c r="F142">
+        <v>-63.98</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>203</v>
+      </c>
+      <c r="F143">
+        <v>-65.77</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>176</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>204</v>
+      </c>
+      <c r="F144">
+        <v>-42.81</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>178</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>205</v>
+      </c>
+      <c r="F145">
+        <v>-53.73</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>206</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>207</v>
+      </c>
+      <c r="F146">
+        <v>-59.1</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>209</v>
+      </c>
+      <c r="F147">
+        <v>-20.36</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>210</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>211</v>
+      </c>
+      <c r="F148">
+        <v>-20.79</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>212</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>213</v>
+      </c>
+      <c r="F149">
+        <v>-14.86</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>214</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>215</v>
+      </c>
+      <c r="F150">
+        <v>-16.5</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>217</v>
+      </c>
+      <c r="F151">
+        <v>1.53</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>219</v>
+      </c>
+      <c r="F152">
+        <v>-13.82</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>221</v>
+      </c>
+      <c r="F153">
+        <v>-37.1</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>222</v>
+      </c>
+      <c r="F154">
+        <v>-43.67</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>220</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>223</v>
+      </c>
+      <c r="F155">
+        <v>-31.33</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>218</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>224</v>
+      </c>
+      <c r="F156">
+        <v>-13.98</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>225</v>
+      </c>
+      <c r="F157">
+        <v>-5.68</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>218</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>226</v>
+      </c>
+      <c r="F158">
+        <v>-5.14</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>220</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>227</v>
+      </c>
+      <c r="F159">
+        <v>5.58</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>228</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>229</v>
+      </c>
+      <c r="F160">
+        <v>-40.020000000000003</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>230</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>231</v>
+      </c>
+      <c r="F161">
+        <v>-51.05</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>232</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>233</v>
+      </c>
+      <c r="F162">
+        <v>-31.04</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>235</v>
+      </c>
+      <c r="F163">
+        <v>-11.07</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>236</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164">
+        <v>-22.47</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>239</v>
+      </c>
+      <c r="F165">
+        <v>-7.81</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>240</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>241</v>
+      </c>
+      <c r="F166">
+        <v>0.99</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>242</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>243</v>
+      </c>
+      <c r="F167">
+        <v>7.37</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>245</v>
+      </c>
+      <c r="F168">
+        <v>-12.91</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>246</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>247</v>
+      </c>
+      <c r="F169">
+        <v>-15.49</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>248</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>249</v>
+      </c>
+      <c r="F170">
+        <v>-16.09</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>250</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>251</v>
+      </c>
+      <c r="F171">
+        <v>10.91</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>240</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>252</v>
+      </c>
+      <c r="F172">
+        <v>-22.09</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>242</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>253</v>
+      </c>
+      <c r="F173">
+        <v>-14.64</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>244</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>254</v>
+      </c>
+      <c r="F174">
+        <v>-8.43</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>246</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>255</v>
+      </c>
+      <c r="F175">
+        <v>-22.27</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>248</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>256</v>
+      </c>
+      <c r="F176">
+        <v>-21.47</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>250</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>257</v>
+      </c>
+      <c r="F177">
+        <v>-19.45</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>258</v>
+      </c>
+      <c r="F178">
+        <v>-17.62</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>259</v>
+      </c>
+      <c r="F179">
+        <v>-25.62</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>260</v>
+      </c>
+      <c r="F180">
+        <v>-37.14</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>261</v>
+      </c>
+      <c r="F181">
+        <v>-16.28</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>262</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>263</v>
+      </c>
+      <c r="F182">
+        <v>-36.159999999999997</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>264</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>265</v>
+      </c>
+      <c r="F183">
+        <v>-12.51</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>267</v>
+      </c>
+      <c r="F184">
+        <v>-7.45</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>268</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>269</v>
+      </c>
+      <c r="F185">
+        <v>-34.17</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>270</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>271</v>
+      </c>
+      <c r="F186">
+        <v>-21.25</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>272</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>273</v>
+      </c>
+      <c r="F187">
+        <v>-24.48</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>274</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>275</v>
+      </c>
+      <c r="F188">
+        <v>-29.38</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>276</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>277</v>
+      </c>
+      <c r="F189">
+        <v>-35.229999999999997</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>270</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>278</v>
+      </c>
+      <c r="F190">
+        <v>-60</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>272</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>279</v>
+      </c>
+      <c r="F191">
+        <v>-50.51</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>274</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>280</v>
+      </c>
+      <c r="F192">
+        <v>-22.35</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>276</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>281</v>
+      </c>
+      <c r="F193">
+        <v>-15.46</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>270</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>282</v>
+      </c>
+      <c r="F194">
+        <v>-3.06</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>272</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>283</v>
+      </c>
+      <c r="F195">
+        <v>8.24</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>270</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>284</v>
+      </c>
+      <c r="F196">
+        <v>-11.63</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>272</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>285</v>
+      </c>
+      <c r="F197">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>286</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>287</v>
+      </c>
+      <c r="F198">
+        <v>-12.66</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>288</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>289</v>
+      </c>
+      <c r="F199">
+        <v>-20.91</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>290</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>291</v>
+      </c>
+      <c r="F200">
+        <v>-32.33</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>292</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>293</v>
+      </c>
+      <c r="F201">
+        <v>-33.979999999999997</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>184</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>294</v>
+      </c>
+      <c r="F202">
+        <v>-2.99</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>186</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>295</v>
+      </c>
+      <c r="F203">
+        <v>1.96</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>274</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>296</v>
+      </c>
+      <c r="F204">
+        <v>1.59</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>276</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>297</v>
+      </c>
+      <c r="F205">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>184</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>298</v>
+      </c>
+      <c r="F206">
+        <v>-6.69</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>186</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>299</v>
+      </c>
+      <c r="F207">
+        <v>-24.5</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>274</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>300</v>
+      </c>
+      <c r="F208">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>276</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>301</v>
+      </c>
+      <c r="F209">
+        <v>2.97</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>302</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>303</v>
+      </c>
+      <c r="F210">
+        <v>-2.87</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>304</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>305</v>
+      </c>
+      <c r="F211">
+        <v>-1.54</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>307</v>
+      </c>
+      <c r="F212">
+        <v>5.93</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>308</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>309</v>
+      </c>
+      <c r="F213">
+        <v>-2.65</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>310</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>311</v>
+      </c>
+      <c r="F214">
+        <v>-11.77</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>312</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>313</v>
+      </c>
+      <c r="F215">
+        <v>-0.71</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>314</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>315</v>
+      </c>
+      <c r="F216">
+        <v>-14.13</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>316</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>317</v>
+      </c>
+      <c r="F217">
+        <v>-36.71</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>318</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>319</v>
+      </c>
+      <c r="F218">
+        <v>-3.59</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>320</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>321</v>
+      </c>
+      <c r="F219">
+        <v>12.14</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>314</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>322</v>
+      </c>
+      <c r="F220">
+        <v>8.93</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>316</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>323</v>
+      </c>
+      <c r="F221">
+        <v>-2.19</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>318</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>324</v>
+      </c>
+      <c r="F222">
+        <v>-67.430000000000007</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>320</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>325</v>
+      </c>
+      <c r="F223">
+        <v>-65.760000000000005</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>314</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>326</v>
+      </c>
+      <c r="F224">
+        <v>-15.97</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>316</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>327</v>
+      </c>
+      <c r="F225">
+        <v>-16.63</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>314</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>328</v>
+      </c>
+      <c r="F226">
+        <v>-9.34</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>316</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>329</v>
+      </c>
+      <c r="F227">
+        <v>-9.64</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>330</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>331</v>
+      </c>
+      <c r="F228">
+        <v>-10.91</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>332</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>333</v>
+      </c>
+      <c r="F229">
+        <v>-2</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>334</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>335</v>
+      </c>
+      <c r="F230">
+        <v>-0.78</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>336</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>337</v>
+      </c>
+      <c r="F231">
+        <v>-6.16</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>338</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>339</v>
+      </c>
+      <c r="F232">
+        <v>-30.24</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>340</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>341</v>
+      </c>
+      <c r="F233">
+        <v>-29.69</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>342</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>343</v>
+      </c>
+      <c r="F234">
+        <v>-3.19</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>344</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>345</v>
+      </c>
+      <c r="F235">
+        <v>10.26</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>342</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>346</v>
+      </c>
+      <c r="F236">
+        <v>6.4</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>344</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>347</v>
+      </c>
+      <c r="F237">
+        <v>-9.02</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>348</v>
+      </c>
+      <c r="F238">
+        <v>-29.59</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>349</v>
+      </c>
+      <c r="F239">
+        <v>-29.05</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>342</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>350</v>
+      </c>
+      <c r="F240">
+        <v>-24.93</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>344</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>351</v>
+      </c>
+      <c r="F241">
+        <v>-24.9</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>240</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>352</v>
+      </c>
+      <c r="F242">
+        <v>-18.66</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>353</v>
+      </c>
+      <c r="F243">
+        <v>-18.670000000000002</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>342</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>354</v>
+      </c>
+      <c r="F244">
+        <v>-21.46</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>344</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>355</v>
+      </c>
+      <c r="F245">
+        <v>-21.49</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>356</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>357</v>
+      </c>
+      <c r="F246">
+        <v>-27.29</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>358</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>359</v>
+      </c>
+      <c r="F247">
+        <v>-27.29</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>360</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>361</v>
+      </c>
+      <c r="F248">
+        <v>-15.8</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>362</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>363</v>
+      </c>
+      <c r="F249">
+        <v>-15.81</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>364</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>365</v>
+      </c>
+      <c r="F250">
+        <v>-22.11</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>366</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>367</v>
+      </c>
+      <c r="F251">
+        <v>-22.13</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>244</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>368</v>
+      </c>
+      <c r="F252">
+        <v>-27.9</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>246</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>369</v>
+      </c>
+      <c r="F253">
+        <v>-27.9</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>244</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>370</v>
+      </c>
+      <c r="F254">
+        <v>-14.45</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
+        <v>246</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>371</v>
+      </c>
+      <c r="F255">
+        <v>-14.34</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>372</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>373</v>
+      </c>
+      <c r="F256">
+        <v>-11.4</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>374</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>375</v>
+      </c>
+      <c r="F257">
+        <v>-11.44</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>376</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>377</v>
+      </c>
+      <c r="F258">
+        <v>-21.55</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>378</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>379</v>
+      </c>
+      <c r="F259">
+        <v>-21.7</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>380</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>381</v>
+      </c>
+      <c r="F260">
+        <v>-19.77</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
+        <v>382</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>383</v>
+      </c>
+      <c r="F261">
+        <v>-19.77</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
+        <v>384</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>385</v>
+      </c>
+      <c r="F262">
+        <v>-30.46</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>386</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>387</v>
+      </c>
+      <c r="F263">
+        <v>-30.46</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>384</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>388</v>
+      </c>
+      <c r="F264">
+        <v>-19.61</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
+        <v>386</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>389</v>
+      </c>
+      <c r="F265">
+        <v>-19.61</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>390</v>
+      </c>
+      <c r="F266">
+        <v>-1.44</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>250</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>391</v>
+      </c>
+      <c r="F267">
+        <v>-1.5</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>384</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="E268" t="s">
+        <v>392</v>
+      </c>
+      <c r="F268">
+        <v>-13.75</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>386</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>393</v>
+      </c>
+      <c r="F269">
+        <v>-13.86</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>248</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>394</v>
+      </c>
+      <c r="F270">
+        <v>-28.19</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>395</v>
+      </c>
+      <c r="F271">
+        <v>-28.24</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>384</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="E272" t="s">
+        <v>396</v>
+      </c>
+      <c r="F272">
+        <v>-23.46</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>386</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>397</v>
+      </c>
+      <c r="F273">
+        <v>-23.42</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>398</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>399</v>
+      </c>
+      <c r="F274">
+        <v>-17.03</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>400</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>401</v>
+      </c>
+      <c r="F275">
+        <v>-16.989999999999998</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>402</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>403</v>
+      </c>
+      <c r="F276">
+        <v>-26.44</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>404</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>405</v>
+      </c>
+      <c r="F277">
+        <v>-26.43</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>406</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>407</v>
+      </c>
+      <c r="F278">
+        <v>-24.59</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>408</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="E279" t="s">
+        <v>409</v>
+      </c>
+      <c r="F279">
+        <v>-24.59</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>410</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>411</v>
+      </c>
+      <c r="F280">
+        <v>-21.59</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>412</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="E281" t="s">
+        <v>413</v>
+      </c>
+      <c r="F281">
+        <v>-21.59</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>410</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>414</v>
+      </c>
+      <c r="F282">
+        <v>-25.33</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>412</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="E283" t="s">
+        <v>415</v>
+      </c>
+      <c r="F283">
+        <v>-25.34</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>318</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>416</v>
+      </c>
+      <c r="F284">
+        <v>-24.67</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>320</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="E285" t="s">
+        <v>417</v>
+      </c>
+      <c r="F285">
+        <v>-24.67</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>410</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="E286" t="s">
+        <v>418</v>
+      </c>
+      <c r="F286">
+        <v>-22.96</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>412</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="E287" t="s">
+        <v>419</v>
+      </c>
+      <c r="F287">
+        <v>-22.98</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>318</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="E288" t="s">
+        <v>420</v>
+      </c>
+      <c r="F288">
+        <v>-24.72</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>320</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="E289" t="s">
+        <v>421</v>
+      </c>
+      <c r="F289">
+        <v>-24.71</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>410</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="E290" t="s">
+        <v>422</v>
+      </c>
+      <c r="F290">
+        <v>-0.15</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>412</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="E291" t="s">
+        <v>423</v>
+      </c>
+      <c r="F291">
+        <v>-0.13</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>424</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="E292" t="s">
+        <v>425</v>
+      </c>
+      <c r="F292">
+        <v>-19.77</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>426</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="E293" t="s">
+        <v>427</v>
+      </c>
+      <c r="F293">
+        <v>-19.77</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>428</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="E294" t="s">
+        <v>429</v>
+      </c>
+      <c r="F294">
+        <v>-14.18</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>430</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="E295" t="s">
+        <v>431</v>
+      </c>
+      <c r="F295">
+        <v>-14</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>432</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="E296" t="s">
+        <v>433</v>
+      </c>
+      <c r="F296">
+        <v>-5.65</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>434</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>435</v>
+      </c>
+      <c r="F297">
+        <v>-5.47</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>436</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="E298" t="s">
+        <v>437</v>
+      </c>
+      <c r="F298">
+        <v>-19.649999999999999</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>438</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="E299" t="s">
+        <v>439</v>
+      </c>
+      <c r="F299">
+        <v>-19.649999999999999</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>440</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="E300" t="s">
+        <v>441</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
+        <v>442</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="E301" t="s">
+        <v>443</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
+        <v>444</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="E302" t="s">
+        <v>445</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
+        <v>446</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="E303" t="s">
+        <v>447</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
+        <v>448</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="E304" t="s">
+        <v>449</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
+        <v>450</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="E305" t="s">
+        <v>451</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
+        <v>452</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>453</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
+        <v>454</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>455</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
+        <v>456</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="E308" t="s">
+        <v>457</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
+        <v>458</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="E309" t="s">
+        <v>459</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
+        <v>460</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="E310" t="s">
+        <v>461</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
+        <v>462</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="E311" t="s">
+        <v>463</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
+        <v>464</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>465</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
+        <v>466</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="E313" t="s">
+        <v>467</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
+        <v>468</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>469</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
+        <v>470</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>471</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
+        <v>472</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>473</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
+        <v>474</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>475</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
+        <v>476</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>477</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
+        <v>478</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="E319" t="s">
+        <v>479</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
+        <v>480</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="E320" t="s">
+        <v>481</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
+        <v>482</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>483</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
+        <v>484</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="E322" t="s">
+        <v>485</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
+        <v>486</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="E323" t="s">
+        <v>487</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
+        <v>488</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>489</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
+        <v>490</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="E325" t="s">
+        <v>491</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
         <v>0</v>
       </c>
     </row>
@@ -2359,22 +7704,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7594C0ED-99C4-46B6-BF2C-713C29E0214B}">
-  <dimension ref="A1:L42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FCAB7D-913A-4553-A011-57F2EB5A2CD2}">
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2384,16 +7725,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>493</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>494</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>495</v>
       </c>
       <c r="K6" t="s">
-        <v>172</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2404,7 +7745,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>497</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -2430,19 +7771,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>499</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2451,18 +7792,18 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2471,27 +7812,27 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>501</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>502</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2500,27 +7841,27 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>503</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>504</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2529,68 +7870,116 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>505</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>506</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>507</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>508</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>509</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>510</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2598,10 +7987,10 @@
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>511</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2609,10 +7998,10 @@
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>512</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2620,10 +8009,10 @@
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>513</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2631,10 +8020,10 @@
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>514</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2642,10 +8031,10 @@
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>515</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2653,10 +8042,10 @@
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2664,10 +8053,10 @@
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>517</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2675,10 +8064,10 @@
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24">
-        <v>-201.14</v>
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>518</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2686,10 +8075,10 @@
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>519</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2697,10 +8086,10 @@
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>520</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2708,10 +8097,10 @@
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>521</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2719,10 +8108,10 @@
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>522</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2730,10 +8119,10 @@
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>523</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2741,10 +8130,10 @@
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>524</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2752,10 +8141,10 @@
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>525</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2763,10 +8152,10 @@
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>526</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2774,10 +8163,10 @@
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33">
-        <v>-19.07</v>
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>527</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2785,10 +8174,10 @@
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>528</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2796,10 +8185,10 @@
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>95</v>
+        <v>529</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2807,21 +8196,21 @@
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>530</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>531</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2829,10 +8218,10 @@
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H38">
-        <v>-6.37</v>
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>532</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2840,10 +8229,10 @@
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>533</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2851,10 +8240,10 @@
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>534</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2862,10 +8251,10 @@
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
-        <v>90</v>
-      </c>
-      <c r="H41">
-        <v>-0.06</v>
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
+        <v>535</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2873,12 +8262,980 @@
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="H42" t="s">
+        <v>536</v>
       </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s">
+        <v>537</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44">
+        <v>-193.11</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45">
+        <v>-200.55</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46">
+        <v>-198.58</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s">
+        <v>538</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" t="s">
+        <v>539</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s">
+        <v>540</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" t="s">
+        <v>541</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>542</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>543</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s">
+        <v>544</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>545</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" t="s">
+        <v>546</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>547</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>548</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s">
+        <v>549</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>550</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>551</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s">
+        <v>552</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s">
+        <v>553</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s">
+        <v>554</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>555</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s">
+        <v>556</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s">
+        <v>557</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+      <c r="H67" t="s">
+        <v>558</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" t="s">
+        <v>559</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" t="s">
+        <v>560</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" t="s">
+        <v>561</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>100</v>
+      </c>
+      <c r="H71" t="s">
+        <v>562</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" t="s">
+        <v>563</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" t="s">
+        <v>564</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" t="s">
+        <v>565</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H75" t="s">
+        <v>566</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
+      <c r="H76" t="s">
+        <v>567</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H77" t="s">
+        <v>568</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" t="s">
+        <v>569</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>109</v>
+      </c>
+      <c r="H79" t="s">
+        <v>570</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" t="s">
+        <v>571</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>113</v>
+      </c>
+      <c r="H81" t="s">
+        <v>572</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>115</v>
+      </c>
+      <c r="H82" t="s">
+        <v>573</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>117</v>
+      </c>
+      <c r="H83" t="s">
+        <v>574</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H84" t="s">
+        <v>575</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>121</v>
+      </c>
+      <c r="H85" t="s">
+        <v>576</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>123</v>
+      </c>
+      <c r="H86" t="s">
+        <v>577</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" t="s">
+        <v>578</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>129</v>
+      </c>
+      <c r="H89" t="s">
+        <v>579</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>131</v>
+      </c>
+      <c r="H90" t="s">
+        <v>580</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>132</v>
+      </c>
+      <c r="H91" t="s">
+        <v>581</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>133</v>
+      </c>
+      <c r="H92" t="s">
+        <v>582</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
+        <v>583</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>135</v>
+      </c>
+      <c r="H94" t="s">
+        <v>584</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" t="s">
+        <v>585</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>137</v>
+      </c>
+      <c r="H96">
+        <v>-0.24</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>138</v>
+      </c>
+      <c r="H97" t="s">
+        <v>586</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>139</v>
+      </c>
+      <c r="H98" t="s">
+        <v>587</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>140</v>
+      </c>
+      <c r="H99" t="s">
+        <v>588</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>141</v>
+      </c>
+      <c r="H100" t="s">
+        <v>589</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>143</v>
+      </c>
+      <c r="H101" t="s">
+        <v>590</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>145</v>
+      </c>
+      <c r="H102" t="s">
+        <v>591</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" t="s">
+        <v>592</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>149</v>
+      </c>
+      <c r="H104" t="s">
+        <v>593</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>151</v>
+      </c>
+      <c r="H105" t="s">
+        <v>594</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>153</v>
+      </c>
+      <c r="H106" t="s">
+        <v>595</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>155</v>
+      </c>
+      <c r="H107" t="s">
+        <v>596</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>157</v>
+      </c>
+      <c r="H108" t="s">
+        <v>597</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>158</v>
+      </c>
+      <c r="H109" t="s">
+        <v>598</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>159</v>
+      </c>
+      <c r="H110" t="s">
+        <v>599</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>160</v>
+      </c>
+      <c r="H111" t="s">
+        <v>600</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>161</v>
+      </c>
+      <c r="H112" t="s">
+        <v>601</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>162</v>
+      </c>
+      <c r="H113" t="s">
+        <v>602</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>163</v>
+      </c>
+      <c r="H114" t="s">
+        <v>603</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>164</v>
+      </c>
+      <c r="H115" t="s">
+        <v>604</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>165</v>
+      </c>
+      <c r="H116" t="s">
+        <v>605</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>166</v>
+      </c>
+      <c r="H117" t="s">
+        <v>606</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>167</v>
+      </c>
+      <c r="H118" t="s">
+        <v>607</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>169</v>
+      </c>
+      <c r="H119" t="s">
+        <v>598</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>171</v>
+      </c>
+      <c r="H120" t="s">
+        <v>599</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>173</v>
+      </c>
+      <c r="H121" t="s">
+        <v>598</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>175</v>
+      </c>
+      <c r="H122" t="s">
+        <v>599</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>177</v>
+      </c>
+      <c r="H123" t="s">
+        <v>598</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>179</v>
+      </c>
+      <c r="H124" t="s">
+        <v>599</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>181</v>
+      </c>
+      <c r="H125" t="s">
+        <v>598</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>183</v>
+      </c>
+      <c r="H126" t="s">
+        <v>599</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>185</v>
+      </c>
+      <c r="H127" t="s">
+        <v>598</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>187</v>
+      </c>
+      <c r="H128" t="s">
+        <v>599</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>188</v>
+      </c>
+      <c r="H129" t="s">
+        <v>598</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>189</v>
+      </c>
+      <c r="H130" t="s">
+        <v>599</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
     </row>
